--- a/webapp/datasciencedata.xlsx
+++ b/webapp/datasciencedata.xlsx
@@ -882,86 +882,6 @@
         <v>6.0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>56.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>78.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>33.0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
